--- a/data/wettkaempfe.xlsx
+++ b/data/wettkaempfe.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57529243-554A-4AF1-99ED-9338762138E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wettkaempfe" sheetId="1" r:id="rId1"/>
@@ -360,13 +361,13 @@
     <t>1:10:44.0</t>
   </si>
   <si>
-    <t>01:34:32.0</t>
+    <t>1:34:32.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -909,9 +910,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -949,9 +950,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,7 +987,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1021,7 +1022,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1194,12 +1195,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/wettkaempfe.xlsx
+++ b/data/wettkaempfe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57529243-554A-4AF1-99ED-9338762138E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5F5964-2650-49CE-A331-1E4799CF538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="118">
   <si>
     <t>Anlass</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>1:34:32.0</t>
+  </si>
+  <si>
+    <t>Pilatus Trailrun</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1:10:01.0</t>
+  </si>
+  <si>
+    <t>Heiss</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1211,8 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3630,14 +3642,50 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
+      <c r="E62">
+        <v>8600</v>
+      </c>
       <c r="F62">
-        <v>2020</v>
+        <v>2025</v>
+      </c>
+      <c r="G62">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J62">
+        <v>14</v>
+      </c>
+      <c r="K62">
+        <v>55</v>
+      </c>
+      <c r="L62">
+        <v>74</v>
+      </c>
+      <c r="M62">
+        <v>243</v>
+      </c>
+      <c r="N62">
+        <v>81</v>
+      </c>
+      <c r="O62" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/wettkaempfe.xlsx
+++ b/data/wettkaempfe.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5F5964-2650-49CE-A331-1E4799CF538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA25DD7-6131-4ED0-AE0B-D762AE37EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wettkaempfe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1212,7 +1225,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O63" sqref="O63"/>
+      <selection pane="bottomLeft" activeCell="L66" sqref="K66:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
